--- a/client/dev/mission.xlsx
+++ b/client/dev/mission.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="18780"/>
+    <workbookView windowHeight="18180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>goal, [kill_count &gt;= 40]</t>
+  </si>
+  <si>
+    <t>test:goal, [weapon_types_kill_count &gt;= 20]</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +101,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -572,48 +568,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,97 +622,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,10 +1067,16 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="41.625" customWidth="1"/>
+    <col min="5" max="5" width="41.25" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1435,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>58</v>
